--- a/数据整理/stocks/A股/创业板/300454-深信服.xlsx
+++ b/数据整理/stocks/A股/创业板/300454-深信服.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9637,4 +9638,5076 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H133"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001938</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>261.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>15.0003</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家行业优选混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>171.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>12.9692</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010595</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>101.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>10.1207</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010186</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>125.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>7.3003</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000751</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>138.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>6.6945</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010213</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>96.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5.8983</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501208</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>115.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>5.3629</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>270005</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发聚丰混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>68.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.9319</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009795</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实远见精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>98.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>4.4843</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000595</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实泰和混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.3411</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011425</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发优势成长股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>32.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.1146</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004241</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>51.27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.9429</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008120</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>36.77</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.9416</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160505</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时主题行业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>97.85</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.8866</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>270050</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发新经济混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>33.09</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.3362</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>166025</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>66.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>76.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.3187</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001811</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧明睿新常态混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>67.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.0832</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000118</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发聚鑫债券A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>168.23</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.9683</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009137</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实瑞和两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>40.85</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.7933</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>22.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.7824</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>070002</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实增长混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>38.31</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>73.69</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.5209</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>31.46</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.67</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.3119</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>17.08</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.2981</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>26.62</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.2565</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000996</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中银新动力股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>13.77</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.2200</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>550015</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>信诚至远灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>38.11</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.1662</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010214</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>17.54</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.0752</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001042</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏领先股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>16.53</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7670</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002980</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏创新前沿股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>31.87</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.7521</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>501082</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>96.97</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.7387</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.7243</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.7087</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007750</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发优势增长股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.7006</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>540010</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇丰晋信科技先锋股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.6691</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>959991</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟领先优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>13.56</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5953</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009877</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中银内核驱动股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.5710</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010596</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.5303</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011426</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发优势成长股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.5257</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.5016</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010187</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4716</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>11.20</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4715</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010824</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>83.08</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4645</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001759</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>嘉实成长增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4330</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009057</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博时科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>11.77</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4284</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000939</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中银研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>84.62</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.4225</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>070022</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>嘉实领先成长混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.4122</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3469</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3224</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008121</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>万家自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3176</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3110</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005347</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>诺德量化优选6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3090</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>008132</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>鹏华价值驱动混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2903</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2878</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>159966</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华夏创业板低波蓝筹ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2805</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2748</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2674</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001036</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>嘉实企业变革股票</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2640</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009058</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>博时科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2588</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001125</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>博时互联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>82.66</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2484</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>160529</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>博时创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>81.89</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2286</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2123</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>85.45</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2078</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>165523</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2036</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>007854</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>光大保德信景气先锋混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>79.06</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1990</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010994</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>博时创新经济混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1908</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>96.84</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1888</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1855</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>000119</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>广发聚鑫债券C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>15.66</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1832</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1722</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>550016</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>信诚至远灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1573</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>006267</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1546</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010134</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>广发新经济混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1518</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010825</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>83.08</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1460</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>360011</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>光大保德信动态优选混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>77.96</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1436</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>98.23</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1371</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>007101</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>76.21</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1369</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>006366</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>兴业安保优选混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1296</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005765</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中欧明睿新常态混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1215</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>95.67</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1121</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1115</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>005310</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1114</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>008723</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>永赢鑫享混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>516800</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华宝中证智能制造主题ETF</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>98.23</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>050012</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>博时策略混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>72.14</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>003053</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0929</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011077</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>汇丰晋信创新先锋股票</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0883</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>164826</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0871</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>000965</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>汇丰晋信新动力混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>011603</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>68.44</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>005029</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>中银产业精选混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>009967</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>博时荣泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>79.38</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>001721</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>工银瑞信新增益混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>30.04</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>002861</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>工银瑞信智能制造股票</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>003434</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>29.85</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>360012</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>光大保德信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>009380</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>富安达科技领航混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>001223</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>鹏华文化传媒娱乐股票</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>003292</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>嘉实优势成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>009882</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>006268</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>003069</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>光大保德信创业板量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>011604</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>68.44</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>009140</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>永赢竞争力精选混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>005482</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>003054</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>519935</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>长信创新驱动股票</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>005027</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>光大保德信多策略优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>51.38</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>959993</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟领先优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>001261</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>中融新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>006801</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>010236</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>006803</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>嘉实互通精选股票</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>81.83</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>005483</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>002749</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>嘉实稳盛债券</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>20.01</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>010025</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>广发聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>010995</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>博时创新经济混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>009883</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>002424</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>博时文体娱乐主题混合</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>159702</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>汇添富中证人工智能主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>79.37</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>006802</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>003070</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>光大保德信创业板量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>010889</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>003435</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>29.85</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300454-深信服.xlsx
+++ b/数据整理/stocks/A股/创业板/300454-深信服.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14710,4 +14711,5378 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H141"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001938</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>235.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>16.3937</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家行业优选混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>142.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>11.7346</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501208</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>106.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.1207</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010186</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>97.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.1741</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000751</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>111.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>6.0569</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010213</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>75.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5.7652</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009795</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实远见精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.2656</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004241</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>44.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.1192</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000595</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实泰和混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>58.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.1159</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>166025</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>59.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.9339</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008120</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>37.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.8920</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160505</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时主题行业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.6058</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002168</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>54.69</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.9688</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001616</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实环保低碳股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>56.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.9173</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009909</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>47.13</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.8663</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009137</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实瑞和两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>34.61</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.7097</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>19.90</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.6816</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000118</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发聚鑫债券A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>173.75</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.5985</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>25.34</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>97.78</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.3988</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>070002</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实增长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>34.14</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.3758</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>14.12</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.1734</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160325</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>33.11</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.0463</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010214</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>12.79</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.9759</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000996</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银新动力股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11.72</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.9622</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8761</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011643</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>23.36</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8643</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006158</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>25.05</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>83.10</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.8016</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>050004</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时精选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>24.35</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.91</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7816</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002980</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏创新前沿股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>19.93</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.7075</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>16.35</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6099</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>540010</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇丰晋信科技先锋股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5935</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001042</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏领先股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5854</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5651</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002891</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏移动互联灵活配置混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>12.70</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5182</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002892</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏移动互联灵活配置混合(QDII)美元现汇</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>12.70</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5182</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002893</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏移动互联灵活配置混合(QDII)美元现钞</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>12.70</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.5182</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>12.91</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.5112</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009057</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博时科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4776</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4694</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011585</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>16.82</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>70.24</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4592</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009877</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中银内核驱动股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4153</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010187</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4039</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001759</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>嘉实成长增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3831</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3615</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>97.78</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3456</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000939</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中银研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3328</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2853</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2743</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008121</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>万家自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2720</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009058</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>博时科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2566</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>159966</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华夏创业板低波蓝筹ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2543</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2527</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005347</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>诺德量化优选6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2488</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010455</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>博时产业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2458</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006648</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>汇安多因子混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2415</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001036</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>嘉实企业变革股票</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2386</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>517050</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>97.31</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2228</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012447</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>57.31</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2196</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2170</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2111</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>97.65</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2075</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>165523</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2048</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>000936</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2017</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>160529</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>博时创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>87.65</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1810</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009910</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1731</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>007101</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1729</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010994</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>博时创新经济混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1724</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>006281</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>万家人工智能混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1591</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010824</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>70.61</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1570</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>360011</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>光大保德信动态优选混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>74.37</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1535</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1494</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>007854</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>光大保德信景气先锋混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>74.57</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1493</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1486</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011832</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1449</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>050007</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>博时平衡配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>48.77</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1438</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>050012</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>博时策略混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>71.68</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1424</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>000119</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>广发聚鑫债券C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>14.94</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1374</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>006267</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1374</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1273</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005109</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>汇安多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1241</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>159899</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>招商中证全指软件交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1201</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>97.69</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>050014</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>博时创业成长混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1175</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>006366</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>兴业安保优选混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1173</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>000849</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1172</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>002142</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>博时外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010558</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1149</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>001650</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>工银瑞信丰收回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>46.37</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>012448</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>57.31</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>006649</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>汇安多因子混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>001721</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>工银瑞信新增益混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>27.67</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>003053</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>000965</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>汇丰晋信新动力混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>011833</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>001722</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>工银瑞信银和利混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>28.51</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>011077</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>汇丰晋信创新先锋股票</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>002861</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>工银瑞信智能制造股票</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>011603</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>009967</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>博时荣泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>82.36</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>003401</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债债券</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>35.91</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>160518</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>博时睿远事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>005029</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>中银产业精选混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>003292</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>嘉实优势成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>88.68</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>360012</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>光大保德信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>010825</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>70.61</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>012084</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>博时睿弘一年定期开放混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>53.54</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>95.84</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>97.16</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>011644</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>011586</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>70.24</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>006803</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>嘉实互通精选股票</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>005110</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>汇安多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>010559</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>006268</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>005945</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债优选债券A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>010456</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>博时产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>011604</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>006159</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>83.10</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>002233</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>工银瑞信丰收回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>46.37</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>003054</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>49.62</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>004677</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>博时战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>006801</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>78.37</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>97.55</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>516700</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>华宝中证大数据产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>96.59</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>010995</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>博时创新经济混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>519935</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>长信创新驱动股票</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>002149</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>嘉实新优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>86.55</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>002424</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>博时文体娱乐主题混合</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>159702</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>汇添富中证人工智能主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>006802</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>78.37</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>005878</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>002553</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>博时创业成长混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>005946</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债优选债券C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>012085</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>博时睿弘一年定期开放混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>53.54</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300454-深信服.xlsx
+++ b/数据整理/stocks/A股/创业板/300454-深信服.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20085,4 +20086,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>140</v>
+      </c>
+      <c r="D2" t="n">
+        <v>111.74</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>132</v>
+      </c>
+      <c r="D3" t="n">
+        <v>129.63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>126</v>
+      </c>
+      <c r="D4" t="n">
+        <v>119.79</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>113</v>
+      </c>
+      <c r="D5" t="n">
+        <v>109.34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300454-深信服.xlsx
+++ b/数据整理/stocks/A股/创业板/300454-深信服.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20094,7 +20095,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20105,17 +20106,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -20125,14 +20146,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>140</v>
-      </c>
-      <c r="D2" t="n">
-        <v>111.74</v>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家行业优选混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>138.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.1880</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -20141,14 +20184,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>132</v>
-      </c>
-      <c r="D3" t="n">
-        <v>129.63</v>
+          <t>000751</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>106.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.4030</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -20157,14 +20222,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>126</v>
-      </c>
-      <c r="D4" t="n">
-        <v>119.79</v>
+          <t>010186</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.1674</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -20173,13 +20260,3419 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010213</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>69.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.8226</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010115</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>75.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.7871</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009795</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实远见精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>81.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.0735</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>166025</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>58.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.3899</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008120</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.3661</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>27.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.3388</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004241</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>42.43</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.2742</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000595</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实泰和混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>55.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.2076</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007731</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>40.98</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.0285</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>19.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.6545</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.6498</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009877</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银内核驱动股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>17.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.4628</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009137</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实瑞和两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>33.68</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.2596</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010016</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>30.15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.2181</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012852</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>30.67</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.1869</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010180</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏科技龙头两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>29.94</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>95.29</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.1467</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160325</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>34.55</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.1229</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002980</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏创新前沿股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>21.28</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.0406</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>070002</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实增长混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>33.14</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>74.35</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.9909</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000996</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中银新动力股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.42</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.9547</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.7966</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010214</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12.33</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6806</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6762</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5775</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001042</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏领先股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5090</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>16.05</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4334</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003053</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4254</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012447</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>83.52</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4018</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000939</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中银研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.89</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2869</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008121</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>万家自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2700</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001759</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实成长增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2694</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010187</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2673</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2476</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2313</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001036</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>嘉实企业变革股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2073</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>159966</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏创业板低波蓝筹ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>98.88</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1989</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005347</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>诺德量化优选6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1937</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1886</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>560660</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>新华中证云计算50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>97.54</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1818</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010824</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1668</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007854</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>光大保德信景气先锋混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>77.21</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1608</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>360011</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>光大保德信动态优选混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>77.71</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1555</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012448</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>83.52</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1449</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>159899</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>招商中证全指软件交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1441</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007101</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>79.03</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1406</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1389</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010017</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1313</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011603</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1308</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>165523</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1279</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>516630</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华夏中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1194</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006366</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>兴业安保优选混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1144</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1076</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1076</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006267</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1075</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1046</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011412</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0997</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>050014</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>博时创业成长混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001721</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>工银瑞信新增益混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>30.02</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>002861</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>工银瑞信智能制造股票</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>012853</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>517800</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>方正富邦中证沪港深人工智能50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>159777</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>国联安创业板科技ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>96.19</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001722</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>工银瑞信银和利混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>29.50</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>003292</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>嘉实优势成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>75.45</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010825</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006803</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>嘉实互通精选股票</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>005029</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中银产业精选混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>360012</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>光大保德信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>011604</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>006268</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>96.87</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>005027</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>光大保德信多策略优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>29.07</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>003054</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>002749</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>嘉实稳盛债券</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>22.14</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>98.38</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>007732</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>519935</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>长信创新驱动股票</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>001938</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>516700</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华宝中证大数据产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>95.98</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>002553</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>博时创业成长混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>90</v>
+      </c>
+      <c r="D2" t="n">
+        <v>67.44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>140</v>
+      </c>
+      <c r="D3" t="n">
+        <v>111.74</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>132</v>
+      </c>
+      <c r="D4" t="n">
+        <v>129.63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>126</v>
+      </c>
+      <c r="D5" t="n">
+        <v>119.79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>113</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>109.34</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300454-深信服.xlsx
+++ b/数据整理/stocks/A股/创业板/300454-深信服.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -23571,7 +23572,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23582,17 +23583,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -23602,14 +23623,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>90</v>
-      </c>
-      <c r="D2" t="n">
-        <v>67.44</v>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家行业优选混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>112.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.8559</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -23618,14 +23661,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>140</v>
-      </c>
-      <c r="D3" t="n">
-        <v>111.74</v>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.4743</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -23634,14 +23699,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>132</v>
-      </c>
-      <c r="D4" t="n">
-        <v>129.63</v>
+          <t>008120</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6030</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -23650,14 +23737,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>126</v>
-      </c>
-      <c r="D5" t="n">
-        <v>119.79</v>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧睿见混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2999</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -23666,13 +23775,2143 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0878</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4875</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.74</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3017</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009909</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>29.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0595</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002980</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏创新前沿股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0576</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>166009</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9497</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9497</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012852</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8570</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010180</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏科技龙头两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>22.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6707</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010678</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6379</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000996</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银新动力股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5575</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5172</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5153</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3049</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010016</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2669</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011708</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>80.96</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2652</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008121</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2288</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009877</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银内核驱动股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2231</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004236</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2217</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012447</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2115</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000939</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中银研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>78.17</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2011</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1952</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>360011</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>光大保德信动态优选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>71.83</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1595</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007854</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>光大保德信景气先锋混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>72.20</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1136</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009910</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1062</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0959</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010017</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012448</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011709</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>80.96</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>560660</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>新华中证云计算50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>97.21</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006366</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>兴业安保优选混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>80.03</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012853</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006803</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>嘉实互通精选股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011603</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>76.40</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>159899</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商中证全指软件交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>98.64</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005029</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中银产业精选混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010679</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>360012</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>光大保德信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>516630</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华夏中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>97.61</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011604</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>76.40</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>97.81</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>516700</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华宝中证大数据产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>96.93</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>014543</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>014544</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>57</v>
+      </c>
+      <c r="D2" t="n">
+        <v>35.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>90</v>
+      </c>
+      <c r="D3" t="n">
+        <v>67.44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>140</v>
+      </c>
+      <c r="D4" t="n">
+        <v>111.74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>132</v>
+      </c>
+      <c r="D5" t="n">
+        <v>129.63</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>126</v>
+      </c>
+      <c r="D6" t="n">
+        <v>119.79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>113</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>109.34</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300454-深信服.xlsx
+++ b/数据整理/stocks/A股/创业板/300454-深信服.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -25794,7 +25795,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25805,17 +25806,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -25825,14 +25846,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>57</v>
-      </c>
-      <c r="D2" t="n">
-        <v>35.68</v>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家行业优选混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>101.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.3444</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -25841,14 +25884,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>90</v>
-      </c>
-      <c r="D3" t="n">
-        <v>67.44</v>
+          <t>540008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信低碳先锋股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>105.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.9174</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -25857,14 +25922,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>140</v>
-      </c>
-      <c r="D4" t="n">
-        <v>111.74</v>
+          <t>540003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>103.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.3751</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -25873,14 +25960,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>132</v>
-      </c>
-      <c r="D5" t="n">
-        <v>129.63</v>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.2895</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -25889,14 +25998,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>126</v>
-      </c>
-      <c r="D6" t="n">
-        <v>119.79</v>
+          <t>008120</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>30.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.7313</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -25905,13 +26036,2843 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧睿见混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.4349</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.1983</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5915</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011578</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>32.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4316</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4190</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>36.94</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.3409</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010723</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>30.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3007</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>166025</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>51.80</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>63.22</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.2639</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>166009</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>25.77</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.2215</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>19.62</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0379</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010678</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>18.60</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8426</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002980</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏创新前沿股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.85</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6858</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5561</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5414</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012778</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>10.55</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5201</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000996</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中银新动力股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5184</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4099</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3660</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2944</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004236</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2664</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011708</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2513</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008121</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>万家自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2337</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>960003</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合H</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2301</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2122</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009877</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中银内核驱动股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2061</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011579</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2041</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013511</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇丰晋信低碳先锋股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1934</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000939</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中银研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1853</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012447</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1456</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012051</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>申万菱信乐道三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1383</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1370</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159966</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏创业板低波蓝筹ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1357</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>360011</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>光大保德信动态优选混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>77.54</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1160</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1089</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007854</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>光大保德信景气先锋混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>77.45</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1068</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011709</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1061</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>165523</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1002</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>98.33</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006803</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>嘉实互通精选股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010724</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006366</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>兴业安保优选混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>81.55</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007101</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>63.22</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011832</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>560660</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>新华中证云计算50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>97.75</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012448</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>159613</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>嘉实中证信息安全主题ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>159899</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>招商中证全指软件交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010679</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>360012</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>光大保德信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011833</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005029</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中银产业精选混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>516630</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华夏中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>004048</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华夏新锦汇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>56.23</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>97.43</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>516700</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华宝中证大数据产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>96.37</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>015481</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中欧睿见混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>013083</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>004049</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华夏新锦汇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>56.23</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>012600</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中银内核驱动股票C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>012264</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中银研究精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>014453</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中银新动力股票C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>76</v>
+      </c>
+      <c r="D2" t="n">
+        <v>49.19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>57</v>
+      </c>
+      <c r="D3" t="n">
+        <v>35.68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>90</v>
+      </c>
+      <c r="D4" t="n">
+        <v>67.44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>140</v>
+      </c>
+      <c r="D5" t="n">
+        <v>111.74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>132</v>
+      </c>
+      <c r="D6" t="n">
+        <v>129.63</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>126</v>
+      </c>
+      <c r="D7" t="n">
+        <v>119.79</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>113</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>109.34</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300454-深信服.xlsx
+++ b/数据整理/stocks/A股/创业板/300454-深信服.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="D2" t="n">
-        <v>49.19</v>
+        <v>65.22</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="D3" t="n">
-        <v>35.68</v>
+        <v>49.19</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="D4" t="n">
-        <v>67.44</v>
+        <v>35.68</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D5" t="n">
-        <v>111.74</v>
+        <v>67.44</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D6" t="n">
-        <v>129.63</v>
+        <v>111.74</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D7" t="n">
-        <v>119.79</v>
+        <v>129.63</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>126</v>
+      </c>
+      <c r="D8" t="n">
+        <v>119.79</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>113</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>109.34</v>
       </c>
     </row>
@@ -600,6 +617,5114 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H134"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163406</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合润混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>252.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.4628</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家行业优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.8304</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>540008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信低碳先锋股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.5959</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>540003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>76.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.2210</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009264</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泓德瑞兴三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>70.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3370</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.3050</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008120</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.1237</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧睿见混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.9190</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014423</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇丰晋信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>37.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.7233</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010723</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.6386</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011578</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.81</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4002</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2921</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>166009</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧新动力混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.2461</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.1550</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>166025</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>44.75</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>59.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.1501</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010678</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.0613</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010947</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.56</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.0062</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.59</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8694</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009909</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>22.17</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8558</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011710</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧睿泽混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8522</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>10.22</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.8288</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000996</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银新动力股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6998</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6409</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006608</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泓德研究优选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>19.13</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6045</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001256</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>泓德优选成长混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>15.66</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4808</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4639</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011930</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏时代前沿一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>16.60</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4631</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>17.72</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4501</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>83.96</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4453</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009869</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4184</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013085</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>申万菱信乐同混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4124</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002808</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>泓德优势领航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4120</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013993</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中欧光熠一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.26</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4036</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002980</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏创新前沿股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>14.74</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4024</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3948</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>13.25</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3856</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004236</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中欧新动力混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3332</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012706</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中银核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3286</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011708</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3099</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012107</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3088</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010755</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博道睿见一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2894</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>10.22</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2872</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012778</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2867</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011579</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2690</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>960003</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合H</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2599</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009877</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中银内核驱动股票A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2281</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008121</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>万家自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2081</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000939</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中银研究精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1987</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1959</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>013511</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>汇丰晋信低碳先锋股票C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1923</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010676</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>光大保德信新机遇混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1821</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1757</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1754</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>013994</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中欧光熠一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>84.26</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1632</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1373</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012051</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>申万菱信乐道三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1332</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011709</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1256</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1217</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>360011</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>光大保德信动态优选混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>74.29</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1212</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>007854</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>光大保德信景气先锋混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>73.83</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1154</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009870</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1151</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1143</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010724</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>86.71</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1129</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006803</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>嘉实互通精选股票</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1118</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>165523</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011931</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华夏时代前沿一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0962</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009910</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0953</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>560002</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>益民红利成长混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>76.71</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0939</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011711</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中欧睿泽混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010824</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>007101</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>59.87</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011694</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010948</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>560660</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>新华中证云计算50ETF</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>97.03</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>010268</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>太平睿安混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>39.63</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>010679</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>97.42</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010713</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>中欧瑾利混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>22.43</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>011832</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>013086</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>申万菱信乐同混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>159613</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>嘉实中证信息安全主题ETF</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>005029</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>中银产业精选混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>83.28</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>159899</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>招商中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>011833</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>360012</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>光大保德信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>010825</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>011695</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>516630</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>华夏中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>003053</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>159739</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>鹏华中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>97.89</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>005027</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>光大保德信多策略优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>40.73</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>159738</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深云计算产业ETF</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>95.55</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>中欧新动力混合（LOF）E</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>014130</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>97.60</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>011603</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>012108</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>517390</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深云计算产业ETF</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>010188</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>中欧添益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>25.33</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>011604</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>001415</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>26.42</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>002046</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>26.42</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>011840</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>517800</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>方正富邦中证沪港深AI50ETF</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>010189</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>中欧添益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>25.33</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>012707</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>中银核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>516700</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>华宝中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>95.99</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>010712</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>中欧瑾利混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>22.43</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>003054</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>015481</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>中欧睿见混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>013083</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>016335</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>159702</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>汇添富中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>011839</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>010269</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>太平睿安混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>39.63</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>014543</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>012600</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>中银内核驱动股票C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>012264</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>中银研究精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>014544</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>014453</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>中银新动力股票C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3543,7 +8668,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5765,7 +10890,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9241,7 +14366,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14615,7 +19740,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19687,7 +24812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -24531,7 +29656,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
